--- a/resultats/mini_google_commands/resultat.xlsx
+++ b/resultats/mini_google_commands/resultat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>twa</t>
   </si>
@@ -100,7 +100,7 @@
     <t>clique</t>
   </si>
   <si>
-    <t>100</t>
+    <t>300</t>
   </si>
   <si>
     <t>mini_google_commands</t>
@@ -158,6 +158,9 @@
     <t>{'train': {'MSE': 0.23158, 'MAE': 0.47767463, 'R2': 0.03548349145974261}, 'val': {'MSE': 0.2381492, 'MAE': 0.4823005, 'R2': -0.008744142549419909}, 'test': {'MSE': 0.23242721, 'MAE': 0.47517413, 'R2': -0.0014348007387239292}}</t>
   </si>
   <si>
+    <t>{'train': {'MSE': 0.23625465, 'MAE': 0.48255637, 'R2': 0.018500915148601527}, 'val': {'MSE': 0.23590794, 'MAE': 0.47976583, 'R2': -0.01413870646841442}, 'test': {'MSE': 0.23870675, 'MAE': 0.48339933, 'R2': -0.03374240187011268}}</t>
+  </si>
+  <si>
     <t>{'train': {'count': 71, 'correct': 0, 'recall@0.8': 0.0}, 'val': {'count': 17, 'correct': 0, 'recall@0.8': 0.0}, 'test': {'count': 12, 'correct': 0, 'recall@0.8': 0.0}}</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
     <t>{'train': {'count': 69, 'correct': 0, 'recall@0.8': 0.0}, 'val': {'count': 21, 'correct': 0, 'recall@0.8': 0.0}, 'test': {'count': 10, 'correct': 0, 'recall@0.8': 0.0}}</t>
   </si>
   <si>
+    <t>{'train': {'count': 206, 'correct': 0, 'recall@0.8': 0.0}, 'val': {'count': 59, 'correct': 0, 'recall@0.8': 0.0}, 'test': {'count': 35, 'correct': 0, 'recall@0.8': 0.0}}</t>
+  </si>
+  <si>
     <t>{'train': {'count': 78, 'correct': 0, 'recall@0.2': 0.0}, 'val': {'count': 26, 'correct': 0, 'recall@0.2': 0.0}, 'test': {'count': 8, 'correct': 0, 'recall@0.2': 0.0}}</t>
   </si>
   <si>
@@ -176,6 +182,9 @@
     <t>{'train': {'count': 80, 'correct': 0, 'recall@0.2': 0.0}, 'val': {'count': 21, 'correct': 0, 'recall@0.2': 0.0}, 'test': {'count': 11, 'correct': 0, 'recall@0.2': 0.0}}</t>
   </si>
   <si>
+    <t>{'train': {'count': 245, 'correct': 0, 'recall@0.2': 0.0}, 'val': {'count': 64, 'correct': 0, 'recall@0.2': 0.0}, 'test': {'count': 28, 'correct': 0, 'recall@0.2': 0.0}}</t>
+  </si>
+  <si>
     <t>{'train': {'count_1.0': 71, 'count_0.0': 78}, 'val': {'count_1.0': 17, 'count_0.0': 26}, 'test': {'count_1.0': 12, 'count_0.0': 8}}</t>
   </si>
   <si>
@@ -185,10 +194,16 @@
     <t>{'train': {'count_1.0': 69, 'count_0.0': 80}, 'val': {'count_1.0': 21, 'count_0.0': 21}, 'test': {'count_1.0': 10, 'count_0.0': 11}}</t>
   </si>
   <si>
+    <t>{'train': {'count_1.0': 206, 'count_0.0': 245}, 'val': {'count_1.0': 59, 'count_0.0': 64}, 'test': {'count_1.0': 35, 'count_0.0': 28}}</t>
+  </si>
+  <si>
     <t>{'train': 156, 'val': 45, 'test': 23}</t>
   </si>
   <si>
     <t>{'train': 140, 'val': 40, 'test': 20}</t>
+  </si>
+  <si>
+    <t>{'train': 471, 'val': 135, 'test': 68}</t>
   </si>
 </sst>
 </file>
@@ -546,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,16 +667,16 @@
         <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -708,33 +723,33 @@
         <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>18</v>
+      <c r="A4">
+        <v>0.1</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -748,8 +763,8 @@
       <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
-        <v>28</v>
+      <c r="J4">
+        <v>100</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
@@ -764,16 +779,72 @@
         <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
         <v>43</v>
       </c>
-      <c r="R4" t="s">
-        <v>44</v>
+      <c r="Q5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
